--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed2/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.576000000000001</v>
+        <v>-7.770999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.888000000000001</v>
+        <v>-7.873999999999998</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.613999999999999</v>
+        <v>-8.228999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.124</v>
+        <v>-7.507000000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.967999999999999</v>
+        <v>-7.904000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.198</v>
+        <v>-8.061</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.861999999999999</v>
+        <v>-7.221000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.504</v>
+        <v>-7.772</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.521999999999998</v>
+        <v>-8.199</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.331999999999999</v>
+        <v>-7.517</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
